--- a/Assignment-1 (Excel Pivot Skill Drill).xlsx
+++ b/Assignment-1 (Excel Pivot Skill Drill).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Q1. Orders" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,13 @@
     <sheet name="Q6. Bonus - Histogram" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Q4. Visualization'!$A$3:$F$21</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Q1. Orders'!$H$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Q1. Orders'!$H$2:$H$601</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Q1. Orders'!$H$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Q1. Orders'!$H$2:$H$601</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId7"/>
+    <pivotCache cacheId="23" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="39">
   <si>
     <t>Product Name</t>
   </si>
@@ -188,13 +187,16 @@
     <t>Pivot table of Product Name &amp; Shipping Priority</t>
   </si>
   <si>
-    <t>A plot visualizing shipping priorities and number of orders per product. [Most popular products have higher number of total orders]</t>
-  </si>
-  <si>
     <t>Average order total per Customer ID</t>
   </si>
   <si>
     <t>A histogram plot of Total Order values</t>
+  </si>
+  <si>
+    <t>Pivot table of Product Name &amp; Shipping Priority [count values greater than 40]</t>
+  </si>
+  <si>
+    <t>A plot visualizing shipping priorities and number of orders per product. [most popular products]</t>
   </si>
 </sst>
 </file>
@@ -519,7 +521,7 @@
             <c:strRef>
               <c:f>'Q4. Visualization'!$A$4:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>10 Foot USB Cable</c:v>
                 </c:pt>
@@ -532,45 +534,6 @@
                 <c:pt idx="3">
                   <c:v>64GB Flash Drive</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Standard Edition DVD</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Wireless Router</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Blue Ray DVD</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Bluetooth Keyboard</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Wired Keyboard</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5 Foot HDMI Cable</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10 Foot HDMI Cable</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5 Foot USB Cable</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Bluetooth Mouse</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>VHS Tape</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -579,7 +542,7 @@
               <c:f>'Q4. Visualization'!$B$4:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -591,45 +554,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +592,7 @@
             <c:strRef>
               <c:f>'Q4. Visualization'!$A$4:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>10 Foot USB Cable</c:v>
                 </c:pt>
@@ -681,45 +605,6 @@
                 <c:pt idx="3">
                   <c:v>64GB Flash Drive</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Standard Edition DVD</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Wireless Router</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Blue Ray DVD</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Bluetooth Keyboard</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Wired Keyboard</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5 Foot HDMI Cable</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10 Foot HDMI Cable</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5 Foot USB Cable</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Bluetooth Mouse</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>VHS Tape</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -728,7 +613,7 @@
               <c:f>'Q4. Visualization'!$C$4:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -740,45 +625,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,7 +663,7 @@
             <c:strRef>
               <c:f>'Q4. Visualization'!$A$4:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>10 Foot USB Cable</c:v>
                 </c:pt>
@@ -830,45 +676,6 @@
                 <c:pt idx="3">
                   <c:v>64GB Flash Drive</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Standard Edition DVD</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Wireless Router</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Blue Ray DVD</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Bluetooth Keyboard</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Wired Keyboard</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5 Foot HDMI Cable</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10 Foot HDMI Cable</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5 Foot USB Cable</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Bluetooth Mouse</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>VHS Tape</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -877,7 +684,7 @@
               <c:f>'Q4. Visualization'!$D$4:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -889,45 +696,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,7 +734,7 @@
             <c:strRef>
               <c:f>'Q4. Visualization'!$A$4:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>10 Foot USB Cable</c:v>
                 </c:pt>
@@ -979,45 +747,6 @@
                 <c:pt idx="3">
                   <c:v>64GB Flash Drive</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Standard Edition DVD</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Wireless Router</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Blue Ray DVD</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Bluetooth Keyboard</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Wired Keyboard</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16GB Flash Drive</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5 Foot HDMI Cable</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10 Foot HDMI Cable</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5 Foot USB Cable</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Bluetooth Mouse</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>VHS Tape</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1026,7 +755,7 @@
               <c:f>'Q4. Visualization'!$E$4:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -1038,45 +767,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,8 +827,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.46013493645244558"/>
-              <c:y val="0.85700914684995488"/>
+              <c:x val="0.46668368320364667"/>
+              <c:y val="0.91064892750475157"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1343,7 +1033,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38795525682079524"/>
+          <c:y val="0.83572751681901836"/>
+          <c:w val="0.22408935744525058"/>
+          <c:h val="7.2318460192475953E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2548,8 +2247,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9437,7 +9136,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Customer ID">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Customer ID">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -10124,13 +9823,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Product Name" colHeaderCaption="Shipping Priority">
-  <location ref="A3:F22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Product Name" colHeaderCaption="Shipping Priority">
+  <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="19">
         <item x="4"/>
         <item x="0"/>
@@ -10149,7 +9848,7 @@
         <item x="14"/>
         <item x="6"/>
         <item x="10"/>
-        <item h="1" x="17"/>
+        <item x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10159,7 +9858,7 @@
         <item x="0"/>
         <item x="3"/>
         <item x="2"/>
-        <item x="4"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10170,57 +9869,18 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
       <x v="8"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
       <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
     </i>
     <i t="grand">
       <x/>
@@ -10250,6 +9910,17 @@
     <dataField name="Product" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="3" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThan" val="40"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -10259,7 +9930,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Customer ID">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Customer ID">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -27071,25 +26742,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
     <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -27127,39 +26799,39 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
-        <v>16</v>
-      </c>
       <c r="E6" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4">
         <v>46</v>
@@ -27167,322 +26839,62 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4">
-        <v>11</v>
-      </c>
       <c r="F7" s="4">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E9" s="4">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4</v>
-      </c>
-      <c r="E12" s="4">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4">
-        <v>12</v>
-      </c>
-      <c r="F13" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4">
-        <v>7</v>
-      </c>
-      <c r="F15" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4">
-        <v>16</v>
-      </c>
-      <c r="F17" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4">
-        <v>8</v>
-      </c>
-      <c r="F18" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4</v>
-      </c>
-      <c r="E19" s="4">
-        <v>7</v>
-      </c>
-      <c r="F19" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="4">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4">
-        <v>11</v>
-      </c>
-      <c r="F20" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9</v>
-      </c>
-      <c r="D21" s="4">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4">
-        <v>8</v>
-      </c>
-      <c r="F21" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="4">
-        <v>140</v>
-      </c>
-      <c r="C22" s="4">
-        <v>168</v>
-      </c>
-      <c r="D22" s="4">
-        <v>132</v>
-      </c>
-      <c r="E22" s="4">
-        <v>160</v>
-      </c>
-      <c r="F22" s="4">
-        <v>600</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -27496,10 +26908,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27520,7 +26933,7 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -27635,7 +27048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -27655,7 +27068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -27675,7 +27088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -27695,7 +27108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -27715,7 +27128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>1</v>
       </c>
@@ -27735,7 +27148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -27755,7 +27168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -27775,7 +27188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
@@ -27795,7 +27208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
@@ -27815,7 +27228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>8</v>
       </c>
@@ -27835,7 +27248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
@@ -27855,7 +27268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
@@ -27875,7 +27288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
@@ -27916,6 +27329,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:F21">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="greaterThan" val="40"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:F18">
     <sortCondition descending="1" ref="F2"/>
   </sortState>
@@ -27957,7 +27377,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="17"/>
     </row>
@@ -28037,7 +27457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -28045,7 +27465,7 @@
   <sheetData>
     <row r="2" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D2" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -28072,6 +27492,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B3CF2DD5E008F7499C4A60BAFDCD8209" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09952ecdaff8af5d8f83072711f0d0e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b915b17d-54ba-4cec-a3dd-06c22c0c28d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="182cb1a2341628fb6de42aba8a36734a" ns3:_="">
     <xsd:import namespace="b915b17d-54ba-4cec-a3dd-06c22c0c28d1"/>
@@ -28217,22 +27652,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9D864F-2F4D-4970-A3AF-EF0CF7EFC55D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b915b17d-54ba-4cec-a3dd-06c22c0c28d1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A4E1583-9B8A-4EDB-BA4A-26FA5F8F1C31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E7BCB10-7B02-4E84-96F0-5ADD645B769A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28248,28 +27692,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A4E1583-9B8A-4EDB-BA4A-26FA5F8F1C31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9D864F-2F4D-4970-A3AF-EF0CF7EFC55D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b915b17d-54ba-4cec-a3dd-06c22c0c28d1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>